--- a/schematbazy.xlsx
+++ b/schematbazy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="12435" windowHeight="9015"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="12435" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,6 +414,56 @@
           <a:ext cx="628650" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>781055</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Elbow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2466980" y="1438276"/>
+          <a:ext cx="2124071" cy="1552574"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -733,7 +783,7 @@
   <dimension ref="D2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +880,7 @@
       </c>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/schematbazy.xlsx
+++ b/schematbazy.xlsx
@@ -345,13 +345,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -360,8 +360,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2476500" y="666750"/>
-          <a:ext cx="638175" cy="9525"/>
+          <a:off x="2476500" y="676275"/>
+          <a:ext cx="647700" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -464,7 +464,9 @@
           <a:ext cx="2124071" cy="1552574"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45516"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -783,7 +785,7 @@
   <dimension ref="D2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/schematbazy.xlsx
+++ b/schematbazy.xlsx
@@ -785,7 +785,7 @@
   <dimension ref="D2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/schematbazy.xlsx
+++ b/schematbazy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="12435" windowHeight="7695"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="12435" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Bshits</t>
   </si>
@@ -111,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,11 +162,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -174,6 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,15 +257,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>574676</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>581029</xdr:colOff>
+      <xdr:colOff>581028</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>120653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -260,8 +274,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4052890" y="1938336"/>
-          <a:ext cx="2143124" cy="4"/>
+          <a:off x="4160838" y="2052638"/>
+          <a:ext cx="1920878" cy="6352"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -292,16 +306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -310,8 +324,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4143375" y="704850"/>
-          <a:ext cx="390525" cy="161925"/>
+          <a:off x="2486025" y="685800"/>
+          <a:ext cx="2095500" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -342,15 +356,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -782,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:L18"/>
+  <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,10 +818,7 @@
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -821,12 +832,8 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>12</v>
@@ -839,11 +846,8 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
@@ -857,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>2</v>
@@ -866,6 +870,9 @@
     <row r="7" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -897,14 +904,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H17" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/schematbazy.xlsx
+++ b/schematbazy.xlsx
@@ -207,15 +207,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -223,9 +223,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5657850" y="685800"/>
-          <a:ext cx="590550" cy="19050"/>
+        <a:xfrm flipH="1">
+          <a:off x="5667375" y="704850"/>
+          <a:ext cx="581025" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -799,7 +799,7 @@
   <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/schematbazy.xlsx
+++ b/schematbazy.xlsx
@@ -799,7 +799,7 @@
   <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/schematbazy.xlsx
+++ b/schematbazy.xlsx
@@ -799,7 +799,7 @@
   <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
